--- a/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/Table21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873DA4D8-2A51-BC40-AF70-4B6A58186480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A89175-1D76-9746-8EA8-A79CED5964B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="1440" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Value</t>
   </si>
@@ -477,13 +477,12 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,8 +501,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="3">
         <v>10976294</v>
